--- a/1 기능 정의/project05 - 요구사항 정의서 - 기범.xlsx
+++ b/1 기능 정의/project05 - 요구사항 정의서 - 기범.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYEONTAE\Desktop\e-Zone\1 기능 정의\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgROmjIYZq9lDQyy9gBk6tLMKV7xg=="/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>현태</t>
   </si>
@@ -230,12 +225,6 @@
     <t>HT – M - 011</t>
   </si>
   <si>
-    <t>HJ - P - 001</t>
-  </si>
-  <si>
-    <t>HJ - M - 001</t>
-  </si>
-  <si>
     <t>KB – P – 013</t>
   </si>
   <si>
@@ -264,15 +253,259 @@
 HJ – P – 029
 HJ – P – 030</t>
   </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인관련</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 이름, 사용 아이디, 사용자 주소, 프로필 사진 등 사용자 정보를 통한 회원가입</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 로그인, 네이버, 카카오톡, 페이스북 로그인 등 SNS 로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/비밀번호 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디를 찾을때는 입력한 이메일 및 이름을 넣으면 아이디를 찾아주고,
+비밀번호 찾을때는 아이디, 이메일을 적어서 메일로 임시 비밀번호를 보내준다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 관련</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 신청</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 모임을 가질려고 하는 회원이 장소를 대관할려고 할때 원하는 날짜 및 원하는 시간대에 예약할 수 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 예약</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 모임에 참가하고자 할때 예약한다. 또한 장소를 대관한 경우 자리 예약을 해야한다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 문의</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 모임에 대한 문의를 하고자 할때 모임 주최자 한테 문의 넣을 수 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지관련</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소, 프로필사진, 이메일, 휴대전화번호 등 회원 정보 수정할 수 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 목록 및 관리 (모임 참가 회원)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청한 모임 참가 신청 목록 및 해당 모임을 취소할 수 있거나 자리 변경할 수 있다(남은 자리가 있는 경우)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 신청 관리 (모임 주최자)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 신청한 경우 날짜 및 비어있는 시간대로 변경 할 수 있다, 또한 해당 대관을 취소 할 수 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관련</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 가이드 &amp; FAQ 게시판</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">등록 날짜, Q&amp;A등록한 회원 ID, 제목
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">등록 날짜, 제목 조회수
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원신고</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 모임 및 참가자를 신고 할 수 있는 기능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신고</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 내용 처리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자들이 신고한 내용 조회 및 처리 결과 내용 발송
+신고 번호, 신고 등록된 날짜, 신고자  ID, 신고 분류, 신고 내용, 업로드 이미지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 내용 변경 및 추가 삭제 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용에 관한 1:1 문의 내용 답변 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ내용 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자계정관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 권한 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼 관리자만 접근 가능한 페이지
+해당 관리자 계정이 처리할 수 있는 정보 권한 설정
+현재 관리자 계정 표시, 관리 권한 부여 및 제거
+관리자 ID, 관리자 이름, 사번, 현재 부여 되어 있는 권한 나열, 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정 추가, 삭제, 정보 변경</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 계정 추가, 삭제, 정보 변경 가능</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 입력한 회원 정보 변경 가능
+회원 상품 조회 : 회원이 등록한  상품(모임) 및 신청한 상품(모임 참가)  관리(삭제 or 제재 ex)3일 계정정지, 5일 계정정지, 영구 제명)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -351,6 +584,45 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -378,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -596,11 +868,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -653,19 +975,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,9 +986,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,25 +1015,92 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,28 +1316,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG992"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="111.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="111.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1005,22 +1378,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1042,20 +1415,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1203,13 +1576,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1244,29 +1617,29 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20">
         <v>43854</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="20">
         <v>43858</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="20">
         <v>43859</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="20">
         <v>43860</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="20">
         <v>43861</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1288,20 +1661,28 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+    <row r="9" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A9" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -1329,20 +1710,24 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+    <row r="10" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A10" s="63"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="12">
         <v>1</v>
       </c>
@@ -1370,21 +1755,25 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="27">
+    <row r="11" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A11" s="63"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="18">
         <v>2</v>
       </c>
       <c r="O11" s="15" t="s">
@@ -1411,21 +1800,27 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="27">
+    <row r="12" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A12" s="63"/>
+      <c r="B12" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="18">
         <v>1</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -1452,21 +1847,25 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="27"/>
+    <row r="13" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A13" s="63"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
@@ -1487,21 +1886,25 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="27"/>
+    <row r="14" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A14" s="63"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="1"/>
@@ -1522,21 +1925,27 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="27">
+    <row r="15" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A15" s="63"/>
+      <c r="B15" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="18">
         <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -1563,21 +1972,25 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="27">
+    <row r="16" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="18">
         <v>1</v>
       </c>
       <c r="O16" s="10" t="s">
@@ -1604,21 +2017,25 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="27">
+    <row r="17" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="18">
         <v>1</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -1645,21 +2062,27 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="27">
+    <row r="18" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="18">
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
@@ -1686,21 +2109,25 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="27">
+    <row r="19" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A19" s="63"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="18">
         <v>1</v>
       </c>
       <c r="O19" s="10" t="s">
@@ -1727,21 +2154,25 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="27">
+    <row r="20" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="18">
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
@@ -1768,22 +2199,28 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="27">
-        <v>2</v>
+    <row r="21" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A21" s="64"/>
+      <c r="B21" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="18">
+        <v>1</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>42</v>
@@ -1809,29 +2246,33 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="27">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>45</v>
-      </c>
+    <row r="22" spans="1:33" ht="46.5" customHeight="1">
+      <c r="A22" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="18">
+        <v>3</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1850,25 +2291,33 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="27">
-        <v>3</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+    <row r="23" spans="1:33" ht="53.25" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="18">
+        <v>1</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1887,29 +2336,33 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="27">
-        <v>1</v>
+    <row r="24" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="18">
+        <v>3</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="P24" s="10"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -1928,27 +2381,31 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="27">
+    <row r="25" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="18">
         <v>3</v>
       </c>
-      <c r="O25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="10"/>
+      <c r="O25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="14"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -1967,27 +2424,31 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="27">
+    <row r="26" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="18">
         <v>3</v>
       </c>
-      <c r="O26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="14"/>
+      <c r="O26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="16"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2006,25 +2467,31 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="27">
+    <row r="27" spans="1:33" ht="51.75" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="18">
         <v>3</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="1"/>
@@ -2045,26 +2512,28 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="27">
+    <row r="28" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="18">
         <v>3</v>
       </c>
-      <c r="O28" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2084,25 +2553,17 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="27">
-        <v>3</v>
-      </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+    <row r="29" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2153,11 +2614,14 @@
     <row r="31" spans="1:33" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="M31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2189,6 +2653,9 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2221,9 +2688,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="17"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2256,7 +2721,11 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="L34" s="17"/>
+      <c r="J34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2290,7 +2759,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
@@ -2327,7 +2796,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
@@ -2364,7 +2833,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
@@ -2401,7 +2870,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="2"/>
@@ -2437,11 +2906,9 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -9149,41 +9616,7 @@
       <c r="AF230" s="1"/>
       <c r="AG230" s="1"/>
     </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
-      <c r="AA231" s="1"/>
-      <c r="AB231" s="1"/>
-      <c r="AC231" s="1"/>
-      <c r="AD231" s="1"/>
-      <c r="AE231" s="1"/>
-      <c r="AF231" s="1"/>
-      <c r="AG231" s="1"/>
-    </row>
+    <row r="231" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
@@ -9944,12 +10377,20 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P29"/>
-  <mergeCells count="2">
+  <autoFilter ref="A7:P28"/>
+  <mergeCells count="11">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A9:A21"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9958,7 +10399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9966,14 +10407,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="13.2">
+    <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9981,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="13.2">
+    <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9989,7 +10430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="13.2">
+    <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -9997,7 +10438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="13.2">
+    <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -10005,7 +10446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="13.2">
+    <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
